--- a/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_김영선.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_김영선.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\Desktop\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C46F712-02E7-4313-8360-9913CF871D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B1D91-C43A-411B-850E-9EBA525137B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C01C1A8E-4ADD-40E9-8DA3-9E41321FCE29}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미션 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미션 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +86,14 @@
   </si>
   <si>
     <t>총 강의수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션1: Todo-List 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +155,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +476,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -515,26 +522,52 @@
       <c r="A4" s="1">
         <v>44015</v>
       </c>
+      <c r="B4" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.77083333333333337</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
+      <c r="B7" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.79166666666666663</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>44019</v>
       </c>
+      <c r="B8" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.79166666666666663</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -657,6 +690,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -685,22 +722,22 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <f>C2/D2</f>
-        <v>0.40540540540540543</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>37</v>
@@ -727,7 +764,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -745,17 +782,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
